--- a/AAII_Financials/Quarterly/CHYHY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHYHY_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>363000</v>
+        <v>363300</v>
       </c>
       <c r="E8" s="3">
-        <v>366200</v>
+        <v>366500</v>
       </c>
       <c r="F8" s="3">
-        <v>335500</v>
+        <v>335800</v>
       </c>
       <c r="G8" s="3">
-        <v>355500</v>
+        <v>355800</v>
       </c>
       <c r="H8" s="3">
-        <v>345100</v>
+        <v>345400</v>
       </c>
       <c r="I8" s="3">
-        <v>329100</v>
+        <v>329400</v>
       </c>
       <c r="J8" s="3">
-        <v>290800</v>
+        <v>291000</v>
       </c>
       <c r="K8" s="3">
         <v>318000</v>
@@ -747,25 +747,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>166000</v>
+        <v>166100</v>
       </c>
       <c r="E9" s="3">
-        <v>169100</v>
+        <v>169300</v>
       </c>
       <c r="F9" s="3">
-        <v>154600</v>
+        <v>154700</v>
       </c>
       <c r="G9" s="3">
-        <v>156100</v>
+        <v>156200</v>
       </c>
       <c r="H9" s="3">
-        <v>154900</v>
+        <v>155000</v>
       </c>
       <c r="I9" s="3">
-        <v>144800</v>
+        <v>145000</v>
       </c>
       <c r="J9" s="3">
-        <v>131200</v>
+        <v>131300</v>
       </c>
       <c r="K9" s="3">
         <v>134300</v>
@@ -776,25 +776,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>197000</v>
+        <v>197100</v>
       </c>
       <c r="E10" s="3">
-        <v>197100</v>
+        <v>197300</v>
       </c>
       <c r="F10" s="3">
-        <v>180900</v>
+        <v>181100</v>
       </c>
       <c r="G10" s="3">
-        <v>199400</v>
+        <v>199500</v>
       </c>
       <c r="H10" s="3">
-        <v>190200</v>
+        <v>190300</v>
       </c>
       <c r="I10" s="3">
-        <v>184300</v>
+        <v>184500</v>
       </c>
       <c r="J10" s="3">
-        <v>159600</v>
+        <v>159700</v>
       </c>
       <c r="K10" s="3">
         <v>183600</v>
@@ -821,7 +821,7 @@
         <v>23100</v>
       </c>
       <c r="E12" s="3">
-        <v>22400</v>
+        <v>22500</v>
       </c>
       <c r="F12" s="3">
         <v>23300</v>
@@ -836,7 +836,7 @@
         <v>23100</v>
       </c>
       <c r="J12" s="3">
-        <v>22400</v>
+        <v>22500</v>
       </c>
       <c r="K12" s="3">
         <v>23100</v>
@@ -944,25 +944,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>271600</v>
+        <v>271800</v>
       </c>
       <c r="E17" s="3">
-        <v>272800</v>
+        <v>273000</v>
       </c>
       <c r="F17" s="3">
-        <v>253800</v>
+        <v>254000</v>
       </c>
       <c r="G17" s="3">
-        <v>260600</v>
+        <v>260800</v>
       </c>
       <c r="H17" s="3">
-        <v>253500</v>
+        <v>253700</v>
       </c>
       <c r="I17" s="3">
-        <v>239000</v>
+        <v>239200</v>
       </c>
       <c r="J17" s="3">
-        <v>219400</v>
+        <v>219600</v>
       </c>
       <c r="K17" s="3">
         <v>226800</v>
@@ -973,25 +973,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>91400</v>
+        <v>91500</v>
       </c>
       <c r="E18" s="3">
-        <v>93400</v>
+        <v>93500</v>
       </c>
       <c r="F18" s="3">
-        <v>81700</v>
+        <v>81800</v>
       </c>
       <c r="G18" s="3">
         <v>94900</v>
       </c>
       <c r="H18" s="3">
-        <v>91600</v>
+        <v>91700</v>
       </c>
       <c r="I18" s="3">
-        <v>90100</v>
+        <v>90200</v>
       </c>
       <c r="J18" s="3">
-        <v>71300</v>
+        <v>71400</v>
       </c>
       <c r="K18" s="3">
         <v>91200</v>
@@ -1018,7 +1018,7 @@
         <v>-7900</v>
       </c>
       <c r="E20" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="F20" s="3">
         <v>-11200</v>
@@ -1044,16 +1044,16 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>84200</v>
+        <v>84300</v>
       </c>
       <c r="E21" s="3">
-        <v>84300</v>
+        <v>84400</v>
       </c>
       <c r="F21" s="3">
         <v>100000</v>
       </c>
       <c r="G21" s="3">
-        <v>88900</v>
+        <v>89000</v>
       </c>
       <c r="H21" s="3">
         <v>84800</v>
@@ -1062,7 +1062,7 @@
         <v>84600</v>
       </c>
       <c r="J21" s="3">
-        <v>91600</v>
+        <v>91700</v>
       </c>
       <c r="K21" s="3">
         <v>86100</v>
@@ -1105,22 +1105,22 @@
         <v>83500</v>
       </c>
       <c r="E23" s="3">
-        <v>83800</v>
+        <v>83900</v>
       </c>
       <c r="F23" s="3">
         <v>70600</v>
       </c>
       <c r="G23" s="3">
+        <v>85200</v>
+      </c>
+      <c r="H23" s="3">
         <v>85100</v>
       </c>
-      <c r="H23" s="3">
-        <v>85000</v>
-      </c>
       <c r="I23" s="3">
-        <v>82400</v>
+        <v>82500</v>
       </c>
       <c r="J23" s="3">
-        <v>65000</v>
+        <v>65100</v>
       </c>
       <c r="K23" s="3">
         <v>82400</v>
@@ -1131,7 +1131,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="E24" s="3">
         <v>20200</v>
@@ -1189,22 +1189,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>63500</v>
+        <v>63600</v>
       </c>
       <c r="E26" s="3">
-        <v>63600</v>
+        <v>63700</v>
       </c>
       <c r="F26" s="3">
         <v>53700</v>
       </c>
       <c r="G26" s="3">
-        <v>67300</v>
+        <v>67400</v>
       </c>
       <c r="H26" s="3">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="I26" s="3">
-        <v>63400</v>
+        <v>63500</v>
       </c>
       <c r="J26" s="3">
         <v>50100</v>
@@ -1218,22 +1218,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>63500</v>
+        <v>63600</v>
       </c>
       <c r="E27" s="3">
-        <v>63600</v>
+        <v>63700</v>
       </c>
       <c r="F27" s="3">
         <v>53700</v>
       </c>
       <c r="G27" s="3">
-        <v>67300</v>
+        <v>67400</v>
       </c>
       <c r="H27" s="3">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="I27" s="3">
-        <v>63400</v>
+        <v>63500</v>
       </c>
       <c r="J27" s="3">
         <v>50100</v>
@@ -1366,7 +1366,7 @@
         <v>7900</v>
       </c>
       <c r="E32" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="F32" s="3">
         <v>11200</v>
@@ -1392,22 +1392,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>63500</v>
+        <v>63600</v>
       </c>
       <c r="E33" s="3">
-        <v>63600</v>
+        <v>63700</v>
       </c>
       <c r="F33" s="3">
         <v>53700</v>
       </c>
       <c r="G33" s="3">
-        <v>67300</v>
+        <v>67400</v>
       </c>
       <c r="H33" s="3">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="I33" s="3">
-        <v>63400</v>
+        <v>63500</v>
       </c>
       <c r="J33" s="3">
         <v>50100</v>
@@ -1450,22 +1450,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>63500</v>
+        <v>63600</v>
       </c>
       <c r="E35" s="3">
-        <v>63600</v>
+        <v>63700</v>
       </c>
       <c r="F35" s="3">
         <v>53700</v>
       </c>
       <c r="G35" s="3">
-        <v>67300</v>
+        <v>67400</v>
       </c>
       <c r="H35" s="3">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="I35" s="3">
-        <v>63400</v>
+        <v>63500</v>
       </c>
       <c r="J35" s="3">
         <v>50100</v>
@@ -1542,7 +1542,7 @@
         <v>69300</v>
       </c>
       <c r="E41" s="3">
-        <v>59500</v>
+        <v>59600</v>
       </c>
       <c r="F41" s="3">
         <v>59100</v>
@@ -1551,7 +1551,7 @@
         <v>89800</v>
       </c>
       <c r="H41" s="3">
-        <v>60900</v>
+        <v>61000</v>
       </c>
       <c r="I41" s="3">
         <v>56400</v>
@@ -1597,25 +1597,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>245000</v>
+        <v>245200</v>
       </c>
       <c r="E43" s="3">
-        <v>257000</v>
+        <v>257300</v>
       </c>
       <c r="F43" s="3">
-        <v>232200</v>
+        <v>232400</v>
       </c>
       <c r="G43" s="3">
-        <v>240800</v>
+        <v>241000</v>
       </c>
       <c r="H43" s="3">
-        <v>249100</v>
+        <v>249300</v>
       </c>
       <c r="I43" s="3">
-        <v>248800</v>
+        <v>249000</v>
       </c>
       <c r="J43" s="3">
-        <v>223400</v>
+        <v>223600</v>
       </c>
       <c r="K43" s="3">
         <v>246300</v>
@@ -1626,25 +1626,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>231000</v>
+        <v>231200</v>
       </c>
       <c r="E44" s="3">
-        <v>228700</v>
+        <v>228900</v>
       </c>
       <c r="F44" s="3">
-        <v>221400</v>
+        <v>221600</v>
       </c>
       <c r="G44" s="3">
-        <v>195800</v>
+        <v>196000</v>
       </c>
       <c r="H44" s="3">
-        <v>181500</v>
+        <v>181600</v>
       </c>
       <c r="I44" s="3">
-        <v>164200</v>
+        <v>164400</v>
       </c>
       <c r="J44" s="3">
-        <v>155000</v>
+        <v>155200</v>
       </c>
       <c r="K44" s="3">
         <v>145200</v>
@@ -1684,25 +1684,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>558600</v>
+        <v>559100</v>
       </c>
       <c r="E46" s="3">
-        <v>560700</v>
+        <v>561200</v>
       </c>
       <c r="F46" s="3">
-        <v>526900</v>
+        <v>527300</v>
       </c>
       <c r="G46" s="3">
-        <v>540300</v>
+        <v>540800</v>
       </c>
       <c r="H46" s="3">
-        <v>505400</v>
+        <v>505800</v>
       </c>
       <c r="I46" s="3">
-        <v>483800</v>
+        <v>484200</v>
       </c>
       <c r="J46" s="3">
-        <v>452200</v>
+        <v>452600</v>
       </c>
       <c r="K46" s="3">
         <v>465400</v>
@@ -1713,10 +1713,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>88200</v>
+        <v>88300</v>
       </c>
       <c r="E47" s="3">
-        <v>84000</v>
+        <v>84100</v>
       </c>
       <c r="F47" s="3">
         <v>62800</v>
@@ -1731,7 +1731,7 @@
         <v>24300</v>
       </c>
       <c r="J47" s="3">
-        <v>26200</v>
+        <v>26300</v>
       </c>
       <c r="K47" s="3">
         <v>24500</v>
@@ -1742,25 +1742,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1027800</v>
+        <v>1028700</v>
       </c>
       <c r="E48" s="3">
-        <v>954600</v>
+        <v>955300</v>
       </c>
       <c r="F48" s="3">
-        <v>942400</v>
+        <v>943200</v>
       </c>
       <c r="G48" s="3">
-        <v>951200</v>
+        <v>952000</v>
       </c>
       <c r="H48" s="3">
-        <v>889600</v>
+        <v>890400</v>
       </c>
       <c r="I48" s="3">
-        <v>867400</v>
+        <v>868100</v>
       </c>
       <c r="J48" s="3">
-        <v>857100</v>
+        <v>857800</v>
       </c>
       <c r="K48" s="3">
         <v>847900</v>
@@ -1771,25 +1771,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1998500</v>
+        <v>2000200</v>
       </c>
       <c r="E49" s="3">
-        <v>2004600</v>
+        <v>2006300</v>
       </c>
       <c r="F49" s="3">
-        <v>2019100</v>
+        <v>2020800</v>
       </c>
       <c r="G49" s="3">
-        <v>2032900</v>
+        <v>2034600</v>
       </c>
       <c r="H49" s="3">
-        <v>2026900</v>
+        <v>2028600</v>
       </c>
       <c r="I49" s="3">
-        <v>2019000</v>
+        <v>2020700</v>
       </c>
       <c r="J49" s="3">
-        <v>2024000</v>
+        <v>2025700</v>
       </c>
       <c r="K49" s="3">
         <v>2026500</v>
@@ -1864,7 +1864,7 @@
         <v>9500</v>
       </c>
       <c r="F52" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="G52" s="3">
         <v>13800</v>
@@ -1916,25 +1916,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3682700</v>
+        <v>3685700</v>
       </c>
       <c r="E54" s="3">
-        <v>3613400</v>
+        <v>3616400</v>
       </c>
       <c r="F54" s="3">
-        <v>3564600</v>
+        <v>3567600</v>
       </c>
       <c r="G54" s="3">
-        <v>3595700</v>
+        <v>3598700</v>
       </c>
       <c r="H54" s="3">
-        <v>3474500</v>
+        <v>3477400</v>
       </c>
       <c r="I54" s="3">
-        <v>3407200</v>
+        <v>3410000</v>
       </c>
       <c r="J54" s="3">
-        <v>3371800</v>
+        <v>3374600</v>
       </c>
       <c r="K54" s="3">
         <v>3376100</v>
@@ -1971,25 +1971,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>110000</v>
+        <v>110100</v>
       </c>
       <c r="E57" s="3">
-        <v>123400</v>
+        <v>123500</v>
       </c>
       <c r="F57" s="3">
+        <v>117700</v>
+      </c>
+      <c r="G57" s="3">
+        <v>143800</v>
+      </c>
+      <c r="H57" s="3">
         <v>117600</v>
       </c>
-      <c r="G57" s="3">
-        <v>143600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>117500</v>
-      </c>
       <c r="I57" s="3">
-        <v>116400</v>
+        <v>116500</v>
       </c>
       <c r="J57" s="3">
-        <v>103500</v>
+        <v>103600</v>
       </c>
       <c r="K57" s="3">
         <v>143200</v>
@@ -2003,22 +2003,22 @@
         <v>57800</v>
       </c>
       <c r="E58" s="3">
-        <v>71300</v>
+        <v>71400</v>
       </c>
       <c r="F58" s="3">
         <v>56400</v>
       </c>
       <c r="G58" s="3">
-        <v>119300</v>
+        <v>119400</v>
       </c>
       <c r="H58" s="3">
-        <v>110800</v>
+        <v>110900</v>
       </c>
       <c r="I58" s="3">
-        <v>169800</v>
+        <v>169900</v>
       </c>
       <c r="J58" s="3">
-        <v>171600</v>
+        <v>171800</v>
       </c>
       <c r="K58" s="3">
         <v>176500</v>
@@ -2029,25 +2029,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>166600</v>
+        <v>166800</v>
       </c>
       <c r="E59" s="3">
-        <v>147400</v>
+        <v>147600</v>
       </c>
       <c r="F59" s="3">
-        <v>144200</v>
+        <v>144300</v>
       </c>
       <c r="G59" s="3">
-        <v>156900</v>
+        <v>157000</v>
       </c>
       <c r="H59" s="3">
-        <v>171100</v>
+        <v>171200</v>
       </c>
       <c r="I59" s="3">
-        <v>185100</v>
+        <v>185200</v>
       </c>
       <c r="J59" s="3">
-        <v>193100</v>
+        <v>193200</v>
       </c>
       <c r="K59" s="3">
         <v>183100</v>
@@ -2058,25 +2058,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>334400</v>
+        <v>334700</v>
       </c>
       <c r="E60" s="3">
-        <v>342100</v>
+        <v>342400</v>
       </c>
       <c r="F60" s="3">
-        <v>318200</v>
+        <v>318400</v>
       </c>
       <c r="G60" s="3">
-        <v>419800</v>
+        <v>420100</v>
       </c>
       <c r="H60" s="3">
-        <v>399400</v>
+        <v>399700</v>
       </c>
       <c r="I60" s="3">
-        <v>471300</v>
+        <v>471600</v>
       </c>
       <c r="J60" s="3">
-        <v>468200</v>
+        <v>468600</v>
       </c>
       <c r="K60" s="3">
         <v>502800</v>
@@ -2087,25 +2087,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1075600</v>
+        <v>1076500</v>
       </c>
       <c r="E61" s="3">
-        <v>1056100</v>
+        <v>1057000</v>
       </c>
       <c r="F61" s="3">
-        <v>1084500</v>
+        <v>1085400</v>
       </c>
       <c r="G61" s="3">
-        <v>925200</v>
+        <v>925900</v>
       </c>
       <c r="H61" s="3">
-        <v>939600</v>
+        <v>940400</v>
       </c>
       <c r="I61" s="3">
-        <v>904500</v>
+        <v>905200</v>
       </c>
       <c r="J61" s="3">
-        <v>938400</v>
+        <v>939200</v>
       </c>
       <c r="K61" s="3">
         <v>857000</v>
@@ -2116,25 +2116,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>276000</v>
+        <v>276200</v>
       </c>
       <c r="E62" s="3">
-        <v>276000</v>
+        <v>276200</v>
       </c>
       <c r="F62" s="3">
-        <v>276000</v>
+        <v>276200</v>
       </c>
       <c r="G62" s="3">
-        <v>273500</v>
+        <v>273700</v>
       </c>
       <c r="H62" s="3">
-        <v>267400</v>
+        <v>267700</v>
       </c>
       <c r="I62" s="3">
-        <v>264500</v>
+        <v>264700</v>
       </c>
       <c r="J62" s="3">
-        <v>264000</v>
+        <v>264200</v>
       </c>
       <c r="K62" s="3">
         <v>266500</v>
@@ -2232,25 +2232,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1686100</v>
+        <v>1687500</v>
       </c>
       <c r="E66" s="3">
-        <v>1674300</v>
+        <v>1675700</v>
       </c>
       <c r="F66" s="3">
-        <v>1678700</v>
+        <v>1680100</v>
       </c>
       <c r="G66" s="3">
-        <v>1618500</v>
+        <v>1619800</v>
       </c>
       <c r="H66" s="3">
-        <v>1593400</v>
+        <v>1594700</v>
       </c>
       <c r="I66" s="3">
-        <v>1627200</v>
+        <v>1628600</v>
       </c>
       <c r="J66" s="3">
-        <v>1670600</v>
+        <v>1672000</v>
       </c>
       <c r="K66" s="3">
         <v>1613200</v>
@@ -2390,25 +2390,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1830800</v>
+        <v>1832300</v>
       </c>
       <c r="E72" s="3">
-        <v>1764400</v>
+        <v>1765800</v>
       </c>
       <c r="F72" s="3">
-        <v>1702700</v>
+        <v>1704100</v>
       </c>
       <c r="G72" s="3">
-        <v>1781200</v>
+        <v>1782700</v>
       </c>
       <c r="H72" s="3">
-        <v>1714800</v>
+        <v>1716300</v>
       </c>
       <c r="I72" s="3">
-        <v>1648900</v>
+        <v>1650300</v>
       </c>
       <c r="J72" s="3">
-        <v>1582900</v>
+        <v>1584200</v>
       </c>
       <c r="K72" s="3">
         <v>1655900</v>
@@ -2506,25 +2506,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1996600</v>
+        <v>1998200</v>
       </c>
       <c r="E76" s="3">
-        <v>1939100</v>
+        <v>1940700</v>
       </c>
       <c r="F76" s="3">
-        <v>1885900</v>
+        <v>1887500</v>
       </c>
       <c r="G76" s="3">
-        <v>1977300</v>
+        <v>1978900</v>
       </c>
       <c r="H76" s="3">
-        <v>1881100</v>
+        <v>1882700</v>
       </c>
       <c r="I76" s="3">
-        <v>1780000</v>
+        <v>1781500</v>
       </c>
       <c r="J76" s="3">
-        <v>1701200</v>
+        <v>1702600</v>
       </c>
       <c r="K76" s="3">
         <v>1762900</v>
@@ -2598,22 +2598,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>63500</v>
+        <v>63600</v>
       </c>
       <c r="E81" s="3">
-        <v>63600</v>
+        <v>63700</v>
       </c>
       <c r="F81" s="3">
         <v>53700</v>
       </c>
       <c r="G81" s="3">
-        <v>67300</v>
+        <v>67400</v>
       </c>
       <c r="H81" s="3">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="I81" s="3">
-        <v>63400</v>
+        <v>63500</v>
       </c>
       <c r="J81" s="3">
         <v>50100</v>
@@ -2814,25 +2814,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>115100</v>
+        <v>115200</v>
       </c>
       <c r="E89" s="3">
-        <v>68800</v>
+        <v>68900</v>
       </c>
       <c r="F89" s="3">
         <v>36200</v>
       </c>
       <c r="G89" s="3">
-        <v>126700</v>
+        <v>126800</v>
       </c>
       <c r="H89" s="3">
-        <v>67000</v>
+        <v>67100</v>
       </c>
       <c r="I89" s="3">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="J89" s="3">
-        <v>78600</v>
+        <v>78700</v>
       </c>
       <c r="K89" s="3">
         <v>146400</v>
@@ -2943,7 +2943,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-54500</v>
+        <v>-54600</v>
       </c>
       <c r="E94" s="3">
         <v>-47300</v>
@@ -2952,7 +2952,7 @@
         <v>-23300</v>
       </c>
       <c r="G94" s="3">
-        <v>-76400</v>
+        <v>-76500</v>
       </c>
       <c r="H94" s="3">
         <v>-37400</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-135200</v>
+        <v>-135300</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-125600</v>
+        <v>-125800</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>-35900</v>
       </c>
       <c r="J100" s="3">
-        <v>-58600</v>
+        <v>-58700</v>
       </c>
       <c r="K100" s="3">
         <v>-111800</v>
@@ -3168,7 +3168,7 @@
         <v>-30700</v>
       </c>
       <c r="G102" s="3">
-        <v>28800</v>
+        <v>28900</v>
       </c>
       <c r="H102" s="3">
         <v>4600</v>
